--- a/AAII_Financials/Quarterly/JBSAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JBSAY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>18703100</v>
+        <v>18744000</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16550600</v>
+        <v>16586700</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -772,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2152500</v>
+        <v>2157200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -901,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>67600</v>
+        <v>67700</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -940,7 +940,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18202300</v>
+        <v>18242000</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
@@ -969,7 +969,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>500800</v>
+        <v>501900</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -1011,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-44900</v>
+        <v>-45000</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
@@ -1069,7 +1069,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>384800</v>
+        <v>385700</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1098,7 +1098,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>71100</v>
+        <v>71200</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1127,7 +1127,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-374900</v>
+        <v>-375700</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1185,7 +1185,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>446000</v>
+        <v>447000</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
@@ -1214,7 +1214,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>473200</v>
+        <v>474300</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
@@ -1359,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>44900</v>
+        <v>45000</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
@@ -1388,7 +1388,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>473200</v>
+        <v>474300</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
@@ -1446,7 +1446,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>473200</v>
+        <v>474300</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
@@ -1535,7 +1535,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2729600</v>
+        <v>2735600</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1593,7 +1593,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5156300</v>
+        <v>5167600</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7623600</v>
+        <v>7640200</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1651,7 +1651,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>479900</v>
+        <v>480900</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1680,7 +1680,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15989400</v>
+        <v>16024300</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1709,7 +1709,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2096900</v>
+        <v>2101400</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1738,7 +1738,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14735400</v>
+        <v>14767600</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1767,7 +1767,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8205200</v>
+        <v>8223100</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1854,7 +1854,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>886700</v>
+        <v>888600</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41913500</v>
+        <v>42005000</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1967,7 +1967,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4335500</v>
+        <v>4345000</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1996,7 +1996,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2017400</v>
+        <v>2021800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2025,7 +2025,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4756300</v>
+        <v>4766700</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2054,7 +2054,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11109300</v>
+        <v>11133500</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2083,7 +2083,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18392100</v>
+        <v>18432300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2380600</v>
+        <v>2385800</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2228,7 +2228,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32579800</v>
+        <v>32650900</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2386,7 +2386,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3594000</v>
+        <v>3601900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2502,7 +2502,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9333700</v>
+        <v>9354100</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2594,7 +2594,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>473200</v>
+        <v>474300</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/JBSAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JBSAY_QTR_FIN.xlsx
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>18744000</v>
+        <v>19095900</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16586700</v>
+        <v>16898200</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -772,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2157200</v>
+        <v>2197800</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -872,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -901,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>67700</v>
+        <v>69000</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -940,7 +940,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18242000</v>
+        <v>18584600</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
@@ -969,7 +969,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>501900</v>
+        <v>511400</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -1011,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-45000</v>
+        <v>-45800</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
@@ -1069,7 +1069,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>385700</v>
+        <v>392900</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1098,7 +1098,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>71200</v>
+        <v>72600</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1127,7 +1127,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-375700</v>
+        <v>-382800</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1185,7 +1185,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>447000</v>
+        <v>455400</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
@@ -1214,7 +1214,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>474300</v>
+        <v>483200</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
@@ -1359,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>45000</v>
+        <v>45800</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
@@ -1388,7 +1388,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>474300</v>
+        <v>483200</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
@@ -1446,7 +1446,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>474300</v>
+        <v>483200</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
@@ -1535,7 +1535,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2735600</v>
+        <v>2787000</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1593,7 +1593,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5167600</v>
+        <v>5264600</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7640200</v>
+        <v>7783700</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1651,7 +1651,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>480900</v>
+        <v>490000</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1680,7 +1680,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16024300</v>
+        <v>16325200</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1709,7 +1709,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2101400</v>
+        <v>2140900</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1738,7 +1738,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14767600</v>
+        <v>15044900</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1767,7 +1767,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8223100</v>
+        <v>8377500</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1854,7 +1854,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>888600</v>
+        <v>905300</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42005000</v>
+        <v>42793800</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1967,7 +1967,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4345000</v>
+        <v>4426600</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1996,7 +1996,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2021800</v>
+        <v>2059800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2025,7 +2025,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4766700</v>
+        <v>4856200</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2054,7 +2054,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11133500</v>
+        <v>11342600</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2083,7 +2083,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18432300</v>
+        <v>18778400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2385800</v>
+        <v>2430600</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2228,7 +2228,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32650900</v>
+        <v>33264000</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2386,7 +2386,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3601900</v>
+        <v>3669500</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2502,7 +2502,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9354100</v>
+        <v>9529800</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2594,7 +2594,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>474300</v>
+        <v>483200</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>3</v>
